--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flashdisk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -133,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,18 +241,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -265,40 +254,55 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,7 +589,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10"/>
+      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,314 +598,315 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="5.7109375" customWidth="1"/>
     <col min="11" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" style="7" customWidth="1"/>
     <col min="18" max="23" width="4.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" style="17" customWidth="1"/>
-    <col min="26" max="30" width="4.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.28515625" style="10" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="12" customWidth="1"/>
+    <col min="27" max="30" width="4.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.28515625" style="7" customWidth="1"/>
     <col min="32" max="37" width="4.28515625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.28515625" style="10" customWidth="1"/>
+    <col min="38" max="38" width="4.28515625" style="7" customWidth="1"/>
     <col min="39" max="44" width="4.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="Y1" s="16"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13"/>
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
+      <c r="C5" s="15"/>
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
+      <c r="C6" s="14"/>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="2" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="R6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="15" t="s">
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="Y6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AF6" s="2" t="s">
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AF6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AM6" s="2" t="s">
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AM6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="16">
         <v>41372</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="16">
         <v>41373</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="16">
         <v>41374</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="16">
         <v>41375</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="16">
         <v>41376</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="16">
         <v>41377</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="19">
         <v>41378</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="16">
         <v>41379</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="16">
         <v>41380</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="16">
         <v>41381</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="16">
         <v>41382</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="16">
         <v>41383</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="16">
         <v>41384</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="19">
         <v>41385</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="23">
         <v>41386</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="20">
         <v>41387</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="16">
         <v>41388</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="16">
         <v>41389</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="16">
         <v>41390</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="16">
         <v>41391</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="19">
         <v>41392</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="16">
         <v>41393</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="16">
         <v>41394</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="16">
         <v>41395</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="16">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="16">
         <v>41397</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="16">
         <v>41398</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="19">
         <v>41399</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="16">
         <v>41400</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="16">
         <v>41401</v>
       </c>
-      <c r="AO7" s="8">
+      <c r="AO7" s="16">
         <v>41402</v>
       </c>
-      <c r="AP7" s="8">
+      <c r="AP7" s="16">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AQ7" s="16">
         <v>41404</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AR7" s="16">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="7"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -910,34 +915,34 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>41372</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>41393</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" t="s">
@@ -946,34 +951,34 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>41372</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>41393</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -982,34 +987,34 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>41372</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>41393</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>2.1</v>
       </c>
       <c r="B12" t="s">
@@ -1018,39 +1023,39 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>41372</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>41398</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
     </row>
     <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1059,16 +1064,16 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>41387</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>41387</v>
       </c>
-      <c r="Z13" s="21"/>
+      <c r="Z13" s="26"/>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -1077,21 +1082,21 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>41393</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>41398</v>
       </c>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="B15" t="s">
@@ -1100,20 +1105,20 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>41387</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>41391</v>
       </c>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -1122,13 +1127,13 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>41400</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>41400</v>
       </c>
-      <c r="AM16" s="9"/>
+      <c r="AM16" s="6"/>
       <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16"/>
@@ -1136,7 +1141,7 @@
       <c r="AR16"/>
     </row>
     <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -1145,21 +1150,21 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>41400</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>41401</v>
       </c>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
       <c r="AO17"/>
       <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
     </row>
     <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>7</v>
       </c>
       <c r="B18" t="s">
@@ -1168,21 +1173,21 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>41402</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>41405</v>
       </c>
       <c r="AM18"/>
       <c r="AN18"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -1191,69 +1196,69 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>41403</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>41405</v>
       </c>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1272,39 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Z2ePrRReoODAvBuP/diQ78sXjyYNGcYG68q8FAiq1hniodZ5jVHuj4cXHi3/weP/GI2miQHKKa6t8OrY5wjGAA==" saltValue="Inye3QM/IHHjUJBn3JtuXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1283,39 +1321,6 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,35 +280,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,7 +598,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD26" sqref="AD26"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,61 +692,61 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="R6" s="17" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="R6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="Y6" s="18" t="s">
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="Y6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AF6" s="17" t="s">
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AF6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AM6" s="17" t="s">
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AM6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -755,154 +764,154 @@
       <c r="J7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="19">
         <v>41372</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="19">
         <v>41373</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="19">
         <v>41374</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="19">
         <v>41375</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="19">
         <v>41376</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="19">
         <v>41377</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="22">
         <v>41378</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="19">
         <v>41379</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="19">
         <v>41380</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="19">
         <v>41381</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="19">
         <v>41382</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="19">
         <v>41383</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="19">
         <v>41384</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="22">
         <v>41385</v>
       </c>
       <c r="Y7" s="23">
         <v>41386</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="Z7" s="24">
         <v>41387</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="19">
         <v>41388</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="19">
         <v>41389</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="19">
         <v>41390</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AD7" s="19">
         <v>41391</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="22">
         <v>41392</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="19">
         <v>41393</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7" s="19">
         <v>41394</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AH7" s="19">
         <v>41395</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="19">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7" s="19">
         <v>41397</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7" s="19">
         <v>41398</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AL7" s="22">
         <v>41399</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AM7" s="19">
         <v>41400</v>
       </c>
-      <c r="AN7" s="16">
+      <c r="AN7" s="19">
         <v>41401</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="AO7" s="19">
         <v>41402</v>
       </c>
-      <c r="AP7" s="16">
+      <c r="AP7" s="19">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="16">
+      <c r="AQ7" s="19">
         <v>41404</v>
       </c>
-      <c r="AR7" s="16">
+      <c r="AR7" s="19">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="22"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="16"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="16"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,8 +942,8 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="25"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -969,8 +978,8 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="25"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
@@ -1005,8 +1014,8 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
@@ -1041,8 +1050,8 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="25"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="17"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -1070,7 +1079,7 @@
       <c r="E13" s="4">
         <v>41387</v>
       </c>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="18"/>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1111,7 +1120,7 @@
       <c r="E15" s="4">
         <v>41391</v>
       </c>
-      <c r="Z15" s="25"/>
+      <c r="Z15" s="17"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -1121,16 +1130,16 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="28">
         <v>41400</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="28">
         <v>41400</v>
       </c>
       <c r="AM16" s="6"/>
@@ -1144,16 +1153,16 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="28">
         <v>41400</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="28">
         <v>41401</v>
       </c>
       <c r="AM17" s="6"/>
@@ -1167,16 +1176,16 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="28">
         <v>41402</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="28">
         <v>41405</v>
       </c>
       <c r="AM18"/>
@@ -1272,39 +1281,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Z2ePrRReoODAvBuP/diQ78sXjyYNGcYG68q8FAiq1hniodZ5jVHuj4cXHi3/weP/GI2miQHKKa6t8OrY5wjGAA==" saltValue="Inye3QM/IHHjUJBn3JtuXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1321,6 +1297,39 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\prodrive\source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>WBS</t>
   </si>
@@ -121,6 +126,36 @@
   </si>
   <si>
     <t>Help System ( scout for)</t>
+  </si>
+  <si>
+    <t>Alamid Framework - Dev Guide</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Alamid Framework Utilities</t>
+  </si>
+  <si>
+    <t>2.1.1.1</t>
+  </si>
+  <si>
+    <t>XML Parser</t>
+  </si>
+  <si>
+    <t>Jun2x</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>Form Generator</t>
+  </si>
+  <si>
+    <t>2.1.2.1</t>
+  </si>
+  <si>
+    <t>Master Files Entry Form</t>
   </si>
 </sst>
 </file>
@@ -206,7 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,34 +319,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,18 +653,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -614,8 +675,9 @@
     <col min="18" max="23" width="4.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="12" customWidth="1"/>
-    <col min="27" max="30" width="4.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="12" customWidth="1"/>
+    <col min="28" max="30" width="4.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" style="7" customWidth="1"/>
     <col min="32" max="37" width="4.28515625" style="1" customWidth="1"/>
     <col min="38" max="38" width="4.28515625" style="7" customWidth="1"/>
@@ -633,7 +695,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -692,226 +754,226 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="R6" s="25" t="s">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="R6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="Y6" s="26" t="s">
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="Y6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AF6" s="25" t="s">
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AF6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AM6" s="25" t="s">
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AM6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="20">
         <v>41372</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="20">
         <v>41373</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="20">
         <v>41374</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="20">
         <v>41375</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="20">
         <v>41376</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="20">
         <v>41377</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="23">
         <v>41378</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="20">
         <v>41379</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="20">
         <v>41380</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="20">
         <v>41381</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="20">
         <v>41382</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="20">
         <v>41383</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="20">
         <v>41384</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="23">
         <v>41385</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="24">
         <v>41386</v>
       </c>
       <c r="Z7" s="24">
         <v>41387</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="25">
         <v>41388</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="20">
         <v>41389</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="20">
         <v>41390</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="20">
         <v>41391</v>
       </c>
-      <c r="AE7" s="22">
+      <c r="AE7" s="23">
         <v>41392</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="20">
         <v>41393</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="AG7" s="20">
         <v>41394</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AH7" s="20">
         <v>41395</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AI7" s="20">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AJ7" s="20">
         <v>41397</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AK7" s="20">
         <v>41398</v>
       </c>
-      <c r="AL7" s="22">
+      <c r="AL7" s="23">
         <v>41399</v>
       </c>
-      <c r="AM7" s="19">
+      <c r="AM7" s="20">
         <v>41400</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AN7" s="20">
         <v>41401</v>
       </c>
-      <c r="AO7" s="19">
+      <c r="AO7" s="20">
         <v>41402</v>
       </c>
-      <c r="AP7" s="19">
+      <c r="AP7" s="20">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AQ7" s="20">
         <v>41404</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="AR7" s="20">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,11 +1005,11 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="6"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="17"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
       <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,11 +1041,11 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="6"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="17"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1015,11 +1077,11 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="Y11" s="16"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="6"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="17"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
       <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,184 +1113,393 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="6"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="17"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
+      <c r="AP12" s="35"/>
     </row>
     <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>3</v>
+      <c r="A13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41387</v>
-      </c>
-      <c r="E13" s="4">
-        <v>41387</v>
-      </c>
-      <c r="Z13" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>4</v>
+      <c r="A14" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4">
-        <v>41393</v>
+        <v>41388</v>
       </c>
       <c r="E14" s="4">
-        <v>41398</v>
-      </c>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
+        <v>41388</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
     </row>
     <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>4.0999999999999996</v>
+      <c r="A15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>41387</v>
+        <v>41388</v>
       </c>
       <c r="E15" s="4">
-        <v>41391</v>
-      </c>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="6"/>
+        <v>41389</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="AD15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>5</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="28">
-        <v>41400</v>
-      </c>
-      <c r="E16" s="28">
-        <v>41400</v>
-      </c>
-      <c r="AM16" s="6"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-    </row>
-    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+    </row>
+    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>6</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="28">
-        <v>41400</v>
-      </c>
-      <c r="E17" s="28">
-        <v>41401</v>
-      </c>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>41387</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41387</v>
+      </c>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>41393</v>
+      </c>
+      <c r="E18" s="4">
+        <v>41398</v>
+      </c>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+    </row>
+    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>41387</v>
+      </c>
+      <c r="E19" s="4">
+        <v>41391</v>
+      </c>
+      <c r="Z19" s="13"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+    </row>
+    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4">
+        <v>41388</v>
+      </c>
+      <c r="E20" s="4">
+        <v>41391</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+    </row>
+    <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="30">
+        <v>41400</v>
+      </c>
+      <c r="E21" s="30">
+        <v>41400</v>
+      </c>
+      <c r="AM21" s="6"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+    </row>
+    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30">
+        <v>41400</v>
+      </c>
+      <c r="E22" s="30">
+        <v>41401</v>
+      </c>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+    </row>
+    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D23" s="30">
         <v>41402</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E23" s="30">
         <v>41405</v>
       </c>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-    </row>
-    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+    </row>
+    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D24" s="4">
         <v>41403</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E24" s="4">
         <v>41405</v>
       </c>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-    </row>
-    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
     </row>
     <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1269,18 +1540,66 @@
     <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
     <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z2ePrRReoODAvBuP/diQ78sXjyYNGcYG68q8FAiq1hniodZ5jVHuj4cXHi3/weP/GI2miQHKKa6t8OrY5wjGAA==" saltValue="Inye3QM/IHHjUJBn3JtuXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1297,39 +1616,6 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -190,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,7 +308,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,30 +317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,12 +334,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +652,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT14" sqref="AT14"/>
+      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +668,7 @@
     <col min="18" max="23" width="4.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="4.28515625" style="18" customWidth="1"/>
     <col min="27" max="27" width="4.28515625" style="12" customWidth="1"/>
     <col min="28" max="30" width="4.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" style="7" customWidth="1"/>
@@ -734,7 +727,7 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -745,7 +738,7 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="27"/>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -754,226 +747,226 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="R6" s="21" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="R6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="Y6" s="22" t="s">
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="Y6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AF6" s="21" t="s">
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AF6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AM6" s="21" t="s">
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AM6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="31">
         <v>41372</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="31">
         <v>41373</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="31">
         <v>41374</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="31">
         <v>41375</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="31">
         <v>41376</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="31">
         <v>41377</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="34">
         <v>41378</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="31">
         <v>41379</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="31">
         <v>41380</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="31">
         <v>41381</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="31">
         <v>41382</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="31">
         <v>41383</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="31">
         <v>41384</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="34">
         <v>41385</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="35">
         <v>41386</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="35">
         <v>41387</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AA7" s="36">
         <v>41388</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="31">
         <v>41389</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="31">
         <v>41390</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="31">
         <v>41391</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="34">
         <v>41392</v>
       </c>
-      <c r="AF7" s="20">
+      <c r="AF7" s="31">
         <v>41393</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="AG7" s="31">
         <v>41394</v>
       </c>
-      <c r="AH7" s="20">
+      <c r="AH7" s="31">
         <v>41395</v>
       </c>
-      <c r="AI7" s="20">
+      <c r="AI7" s="31">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="20">
+      <c r="AJ7" s="31">
         <v>41397</v>
       </c>
-      <c r="AK7" s="20">
+      <c r="AK7" s="31">
         <v>41398</v>
       </c>
-      <c r="AL7" s="23">
+      <c r="AL7" s="34">
         <v>41399</v>
       </c>
-      <c r="AM7" s="20">
+      <c r="AM7" s="31">
         <v>41400</v>
       </c>
-      <c r="AN7" s="20">
+      <c r="AN7" s="31">
         <v>41401</v>
       </c>
-      <c r="AO7" s="20">
+      <c r="AO7" s="31">
         <v>41402</v>
       </c>
-      <c r="AP7" s="20">
+      <c r="AP7" s="31">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="20">
+      <c r="AQ7" s="31">
         <v>41404</v>
       </c>
-      <c r="AR7" s="20">
+      <c r="AR7" s="31">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,12 +997,12 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="17"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="16"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
       <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,12 +1033,12 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="17"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="16"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,12 +1069,12 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="17"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
       <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,19 +1105,19 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="17"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="16"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AP12" s="35"/>
+      <c r="AP12" s="26"/>
     </row>
     <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1135,36 +1128,36 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1182,36 +1175,36 @@
       <c r="E14" s="4">
         <v>41388</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
     </row>
     <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1229,36 +1222,36 @@
       <c r="E15" s="4">
         <v>41389</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="25"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
+      <c r="AD15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1272,36 +1265,36 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="25"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AF16" s="6"/>
-      <c r="AG16" s="35"/>
-      <c r="AH16" s="35"/>
-      <c r="AI16" s="35"/>
-      <c r="AJ16" s="35"/>
-      <c r="AK16" s="35"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
     </row>
     <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -1361,9 +1354,9 @@
         <v>41391</v>
       </c>
       <c r="Z19" s="13"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
     </row>
     <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1381,51 +1374,51 @@
       <c r="E20" s="4">
         <v>41391</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
     </row>
     <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="21">
         <v>41400</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="21">
         <v>41400</v>
       </c>
       <c r="AM21" s="6"/>
@@ -1439,16 +1432,16 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="21">
         <v>41400</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="21">
         <v>41401</v>
       </c>
       <c r="AM22" s="6"/>
@@ -1462,16 +1455,16 @@
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="21">
         <v>41402</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="21">
         <v>41405</v>
       </c>
       <c r="AM23"/>
@@ -1567,39 +1560,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1616,6 +1576,39 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -345,26 +345,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,7 +652,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,76 +747,76 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="R6" s="37" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="R6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="Y6" s="38" t="s">
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="Y6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AF6" s="37" t="s">
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AF6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AM6" s="37" t="s">
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AM6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="31">
@@ -923,16 +923,16 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
@@ -1170,10 +1170,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="4">
-        <v>41388</v>
+        <v>41381</v>
       </c>
       <c r="E14" s="4">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>41388</v>
+        <v>41366</v>
       </c>
       <c r="E15" s="4">
         <v>41389</v>
@@ -1263,8 +1263,12 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4">
+        <v>41389</v>
+      </c>
+      <c r="E16" s="4">
+        <v>41393</v>
+      </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -1560,6 +1564,39 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1576,39 +1613,6 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>WBS</t>
   </si>
@@ -152,10 +152,25 @@
     <t>Form Generator</t>
   </si>
   <si>
-    <t>2.1.2.1</t>
-  </si>
-  <si>
     <t>Master Files Entry Form</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Login System</t>
+  </si>
+  <si>
+    <t>Backup Utility</t>
+  </si>
+  <si>
+    <t>Restore Utility</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
   </si>
 </sst>
 </file>
@@ -276,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,29 +357,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS51"/>
+  <dimension ref="A1:AS54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,226 +765,226 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="R6" s="32" t="s">
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="R6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="Y6" s="33" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="Y6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AF6" s="32" t="s">
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AF6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AM6" s="32" t="s">
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AM6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="32">
         <v>41372</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="32">
         <v>41373</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="32">
         <v>41374</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="32">
         <v>41375</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="32">
         <v>41376</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="32">
         <v>41377</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <v>41378</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="32">
         <v>41379</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="32">
         <v>41380</v>
       </c>
-      <c r="T7" s="31">
+      <c r="T7" s="32">
         <v>41381</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="32">
         <v>41382</v>
       </c>
-      <c r="V7" s="31">
+      <c r="V7" s="32">
         <v>41383</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="32">
         <v>41384</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="35">
         <v>41385</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="36">
         <v>41386</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="36">
         <v>41387</v>
       </c>
-      <c r="AA7" s="36">
+      <c r="AA7" s="37">
         <v>41388</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="AB7" s="32">
         <v>41389</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AC7" s="32">
         <v>41390</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="32">
         <v>41391</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="35">
         <v>41392</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="AF7" s="32">
         <v>41393</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AG7" s="32">
         <v>41394</v>
       </c>
-      <c r="AH7" s="31">
+      <c r="AH7" s="32">
         <v>41395</v>
       </c>
-      <c r="AI7" s="31">
+      <c r="AI7" s="32">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="31">
+      <c r="AJ7" s="32">
         <v>41397</v>
       </c>
-      <c r="AK7" s="31">
+      <c r="AK7" s="32">
         <v>41398</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="35">
         <v>41399</v>
       </c>
-      <c r="AM7" s="31">
+      <c r="AM7" s="32">
         <v>41400</v>
       </c>
-      <c r="AN7" s="31">
+      <c r="AN7" s="32">
         <v>41401</v>
       </c>
-      <c r="AO7" s="31">
+      <c r="AO7" s="32">
         <v>41402</v>
       </c>
-      <c r="AP7" s="31">
+      <c r="AP7" s="32">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="31">
+      <c r="AQ7" s="32">
         <v>41404</v>
       </c>
-      <c r="AR7" s="31">
+      <c r="AR7" s="32">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,10 +1273,10 @@
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1284,8 +1302,8 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="25"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
       <c r="AD16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="26"/>
@@ -1300,212 +1318,332 @@
       <c r="AQ16" s="17"/>
       <c r="AR16" s="17"/>
     </row>
-    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+    </row>
+    <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+    </row>
+    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+    </row>
+    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D20" s="4">
         <v>41387</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E20" s="4">
         <v>41387</v>
       </c>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>41393</v>
-      </c>
-      <c r="E18" s="4">
-        <v>41398</v>
-      </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-    </row>
-    <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4">
-        <v>41387</v>
-      </c>
-      <c r="E19" s="4">
-        <v>41391</v>
-      </c>
-      <c r="Z19" s="13"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-    </row>
-    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4">
-        <v>41388</v>
-      </c>
-      <c r="E20" s="4">
-        <v>41391</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>5</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="21">
-        <v>41400</v>
-      </c>
-      <c r="E21" s="21">
-        <v>41400</v>
-      </c>
-      <c r="AM21" s="6"/>
-      <c r="AN21"/>
-      <c r="AO21"/>
-      <c r="AP21"/>
-      <c r="AQ21"/>
-      <c r="AR21"/>
-    </row>
-    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41393</v>
+      </c>
+      <c r="E21" s="4">
+        <v>41398</v>
+      </c>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+    </row>
+    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>6</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="20" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="21">
-        <v>41400</v>
-      </c>
-      <c r="E22" s="21">
-        <v>41401</v>
-      </c>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22"/>
-      <c r="AP22"/>
-      <c r="AQ22"/>
-      <c r="AR22"/>
+      <c r="D22" s="4">
+        <v>41387</v>
+      </c>
+      <c r="E22" s="4">
+        <v>41391</v>
+      </c>
+      <c r="Z22" s="13"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
     </row>
     <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>7</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="20" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="21">
-        <v>41402</v>
-      </c>
-      <c r="E23" s="21">
-        <v>41405</v>
-      </c>
-      <c r="AM23"/>
-      <c r="AN23"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
+      <c r="D23" s="4">
+        <v>41388</v>
+      </c>
+      <c r="E23" s="4">
+        <v>41391</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
     </row>
     <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>5</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="21">
+        <v>41400</v>
+      </c>
+      <c r="E24" s="21">
+        <v>41400</v>
+      </c>
+      <c r="AM24" s="6"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+    </row>
+    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>6</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="21">
+        <v>41400</v>
+      </c>
+      <c r="E25" s="21">
+        <v>41401</v>
+      </c>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+    </row>
+    <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>7</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="21">
+        <v>41402</v>
+      </c>
+      <c r="E26" s="21">
+        <v>41405</v>
+      </c>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+    </row>
+    <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D27" s="4">
         <v>41403</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E27" s="4">
         <v>41405</v>
       </c>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-    </row>
-    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
     </row>
     <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1552,51 +1690,27 @@
     <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
     <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1613,6 +1727,39 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\prodrive\source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -351,38 +346,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,7 +665,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,8 +682,9 @@
     <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" style="10" customWidth="1"/>
     <col min="26" max="26" width="4.28515625" style="18" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="12" customWidth="1"/>
-    <col min="28" max="30" width="4.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="31" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="12" customWidth="1"/>
+    <col min="29" max="30" width="4.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" style="7" customWidth="1"/>
     <col min="32" max="37" width="4.28515625" style="1" customWidth="1"/>
     <col min="38" max="38" width="4.28515625" style="7" customWidth="1"/>
@@ -706,7 +702,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -765,76 +761,76 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="R6" s="38" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="R6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="Y6" s="39" t="s">
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="Y6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AF6" s="38" t="s">
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AF6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AM6" s="38" t="s">
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AM6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="32">
@@ -885,10 +881,10 @@
       <c r="Z7" s="36">
         <v>41387</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="36">
         <v>41388</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AB7" s="37">
         <v>41389</v>
       </c>
       <c r="AC7" s="32">
@@ -941,16 +937,16 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
@@ -967,8 +963,8 @@
       <c r="X8" s="35"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="32"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
       <c r="AC8" s="32"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="35"/>
@@ -1017,8 +1013,8 @@
       <c r="W9" s="8"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="19"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="6"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="16"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AF9" s="6"/>
@@ -1053,8 +1049,8 @@
       <c r="W10" s="8"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="19"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="6"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="16"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AF10" s="6"/>
@@ -1089,8 +1085,8 @@
       <c r="W11" s="8"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="19"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="6"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AF11" s="6"/>
@@ -1125,8 +1121,8 @@
       <c r="W12" s="8"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="19"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="6"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="16"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
       <c r="AF12" s="6"/>
@@ -1160,8 +1156,8 @@
       <c r="W13" s="20"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="26"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AF13" s="26"/>
@@ -1202,13 +1198,13 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="26"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AF14" s="26"/>
@@ -1254,8 +1250,8 @@
       <c r="W15" s="20"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="6"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="16"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="26"/>
       <c r="AF15" s="26"/>
@@ -1301,8 +1297,8 @@
       <c r="W16" s="20"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="24"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="26"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="25"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="6"/>
       <c r="AF16" s="6"/>
@@ -1344,8 +1340,8 @@
       <c r="W17" s="20"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="26"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="6"/>
       <c r="AF17" s="6"/>
@@ -1354,12 +1350,12 @@
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
     </row>
     <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1387,8 +1383,8 @@
       <c r="W18" s="20"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="26"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="25"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="6"/>
       <c r="AF18" s="6"/>
@@ -1397,12 +1393,12 @@
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
     </row>
     <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1430,8 +1426,8 @@
       <c r="W19" s="20"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="26"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="25"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="6"/>
       <c r="AF19" s="6"/>
@@ -1440,12 +1436,12 @@
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
       <c r="AK19" s="26"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
     </row>
     <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -1505,7 +1501,6 @@
         <v>41391</v>
       </c>
       <c r="Z22" s="13"/>
-      <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
     </row>
@@ -1539,8 +1534,8 @@
       <c r="W23" s="17"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="6"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AF23" s="17"/>
@@ -1711,6 +1706,39 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1727,39 +1755,6 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>WBS</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>2.1.4</t>
+  </si>
+  <si>
+    <t>04//2013</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -291,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,13 +360,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -382,6 +391,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +682,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,8 +699,9 @@
     <col min="24" max="24" width="4.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="4.28515625" style="10" customWidth="1"/>
     <col min="26" max="26" width="4.28515625" style="18" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="12" customWidth="1"/>
-    <col min="28" max="30" width="4.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="31" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="12" customWidth="1"/>
+    <col min="29" max="30" width="4.28515625" style="1" customWidth="1"/>
     <col min="31" max="31" width="4.28515625" style="7" customWidth="1"/>
     <col min="32" max="37" width="4.28515625" style="1" customWidth="1"/>
     <col min="38" max="38" width="4.28515625" style="7" customWidth="1"/>
@@ -706,7 +719,7 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -885,10 +898,10 @@
       <c r="Z7" s="36">
         <v>41387</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="36">
         <v>41388</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AB7" s="37">
         <v>41389</v>
       </c>
       <c r="AC7" s="32">
@@ -967,8 +980,8 @@
       <c r="X8" s="35"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="32"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
       <c r="AC8" s="32"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="35"/>
@@ -1001,7 +1014,7 @@
         <v>41372</v>
       </c>
       <c r="E9" s="4">
-        <v>41393</v>
+        <v>41389</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1016,12 +1029,12 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="6"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="26"/>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1037,7 +1050,7 @@
         <v>41372</v>
       </c>
       <c r="E10" s="4">
-        <v>41393</v>
+        <v>41389</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1052,12 +1065,12 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="6"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="16"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
-      <c r="AF10" s="6"/>
+      <c r="AF10" s="26"/>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1073,7 +1086,7 @@
         <v>41372</v>
       </c>
       <c r="E11" s="4">
-        <v>41393</v>
+        <v>41389</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1088,12 +1101,12 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="6"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
-      <c r="AF11" s="6"/>
+      <c r="AF11" s="26"/>
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1124,11 +1137,11 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
@@ -1160,8 +1173,8 @@
       <c r="W13" s="20"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="26"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AF13" s="26"/>
@@ -1187,11 +1200,11 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4">
-        <v>41381</v>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="4">
-        <v>41387</v>
+        <v>41386</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -1206,9 +1219,9 @@
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
       <c r="Y14" s="28"/>
-      <c r="Z14" s="30"/>
+      <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
-      <c r="AB14" s="26"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AF14" s="26"/>
@@ -1235,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>41366</v>
+        <v>41389</v>
       </c>
       <c r="E15" s="4">
-        <v>41389</v>
+        <v>41390</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -1254,8 +1267,8 @@
       <c r="W15" s="20"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="6"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="16"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="26"/>
       <c r="AF15" s="26"/>
@@ -1282,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4">
-        <v>41389</v>
+        <v>41391</v>
       </c>
       <c r="E16" s="4">
         <v>41393</v>
@@ -1301,8 +1314,8 @@
       <c r="W16" s="20"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="24"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="26"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="25"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="6"/>
       <c r="AF16" s="6"/>
@@ -1328,8 +1341,12 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4">
+        <v>41391</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41393</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -1344,8 +1361,8 @@
       <c r="W17" s="20"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="26"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="6"/>
       <c r="AF17" s="6"/>
@@ -1354,12 +1371,12 @@
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
     </row>
     <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1371,8 +1388,12 @@
       <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4">
+        <v>41391</v>
+      </c>
+      <c r="E18" s="4">
+        <v>41393</v>
+      </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -1387,8 +1408,8 @@
       <c r="W18" s="20"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="26"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="25"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="6"/>
       <c r="AF18" s="6"/>
@@ -1397,12 +1418,12 @@
       <c r="AI18" s="26"/>
       <c r="AJ18" s="26"/>
       <c r="AK18" s="26"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
     </row>
     <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1414,8 +1435,12 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4">
+        <v>41391</v>
+      </c>
+      <c r="E19" s="4">
+        <v>41393</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -1430,8 +1455,8 @@
       <c r="W19" s="20"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="26"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="25"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="6"/>
       <c r="AF19" s="6"/>
@@ -1440,12 +1465,12 @@
       <c r="AI19" s="26"/>
       <c r="AJ19" s="26"/>
       <c r="AK19" s="26"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
     </row>
     <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -1505,7 +1530,6 @@
         <v>41391</v>
       </c>
       <c r="Z22" s="13"/>
-      <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
     </row>
@@ -1539,8 +1563,8 @@
       <c r="W23" s="17"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="17"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="6"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AF23" s="17"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>WBS</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>2.1.4</t>
-  </si>
-  <si>
-    <t>04//2013</t>
   </si>
 </sst>
 </file>
@@ -375,11 +372,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -390,11 +387,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,7 +679,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,76 +775,76 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="R6" s="34" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="R6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="Y6" s="35" t="s">
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="Y6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AF6" s="34" t="s">
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AF6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AM6" s="34" t="s">
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AM6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="33">
@@ -954,16 +951,16 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
@@ -1200,8 +1197,8 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
+      <c r="D14" s="4">
+        <v>41382</v>
       </c>
       <c r="E14" s="4">
         <v>41386</v>
@@ -1735,39 +1732,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1784,6 +1748,39 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -675,11 +675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="10" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="10" ySplit="8" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,10 +1406,9 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="25"/>
+      <c r="AB18" s="6"/>
       <c r="AC18" s="26"/>
-      <c r="AD18" s="6"/>
-      <c r="AF18" s="6"/>
+      <c r="AF18" s="26"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
@@ -1453,10 +1452,10 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="25"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="26"/>
-      <c r="AD19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AD19" s="26"/>
+      <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>WBS</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>hook function checker</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>alamid table name retriever</t>
   </si>
 </sst>
 </file>
@@ -297,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,29 +381,32 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,13 +688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS54"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="10" ySplit="8" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,226 +790,226 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="R6" s="39" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="R6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="Y6" s="40" t="s">
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="Y6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AF6" s="39" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AF6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AM6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <v>41372</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="34">
         <v>41373</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <v>41374</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="34">
         <v>41375</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <v>41376</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="34">
         <v>41377</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="37">
         <v>41378</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="34">
         <v>41379</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <v>41380</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="34">
         <v>41381</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="34">
         <v>41382</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="34">
         <v>41383</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="34">
         <v>41384</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="37">
         <v>41385</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="38">
         <v>41386</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="38">
         <v>41387</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="38">
         <v>41388</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7" s="39">
         <v>41389</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="34">
         <v>41390</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="34">
         <v>41391</v>
       </c>
-      <c r="AE7" s="36">
+      <c r="AE7" s="37">
         <v>41392</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="34">
         <v>41393</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="34">
         <v>41394</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="34">
         <v>41395</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="34">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="34">
         <v>41397</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AK7" s="34">
         <v>41398</v>
       </c>
-      <c r="AL7" s="36">
+      <c r="AL7" s="37">
         <v>41399</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AM7" s="34">
         <v>41400</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AN7" s="34">
         <v>41401</v>
       </c>
-      <c r="AO7" s="33">
+      <c r="AO7" s="34">
         <v>41402</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="34">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="34">
         <v>41404</v>
       </c>
-      <c r="AR7" s="33">
+      <c r="AR7" s="34">
         <v>41405</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
       <c r="AS8" s="5"/>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,208 +1483,296 @@
       <c r="AQ19" s="30"/>
       <c r="AR19" s="30"/>
     </row>
-    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>3</v>
+    <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>41387</v>
+        <v>41389</v>
       </c>
       <c r="E20" s="4">
-        <v>41387</v>
-      </c>
-      <c r="Z20" s="13"/>
+        <v>41389</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
     </row>
     <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>4</v>
+      <c r="A21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4">
-        <v>41393</v>
+        <v>41389</v>
       </c>
       <c r="E21" s="4">
-        <v>41398</v>
-      </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
+        <v>41389</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
     </row>
     <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>41387</v>
       </c>
       <c r="E22" s="4">
-        <v>41391</v>
+        <v>41387</v>
       </c>
       <c r="Z22" s="13"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
     </row>
     <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4">
-        <v>41388</v>
+        <v>41393</v>
       </c>
       <c r="E23" s="4">
+        <v>41398</v>
+      </c>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+    </row>
+    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>41387</v>
+      </c>
+      <c r="E24" s="4">
         <v>41391</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-    </row>
-    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>5</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="21">
-        <v>41400</v>
-      </c>
-      <c r="E24" s="21">
-        <v>41400</v>
-      </c>
-      <c r="AM24" s="6"/>
-      <c r="AN24"/>
-      <c r="AO24"/>
-      <c r="AP24"/>
-      <c r="AQ24"/>
-      <c r="AR24"/>
+      <c r="Z24" s="13"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
     </row>
     <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>6</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="20" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="21">
-        <v>41400</v>
-      </c>
-      <c r="E25" s="21">
-        <v>41401</v>
-      </c>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
+      <c r="D25" s="4">
+        <v>41388</v>
+      </c>
+      <c r="E25" s="4">
+        <v>41391</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
     </row>
     <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="21">
-        <v>41402</v>
+        <v>41400</v>
       </c>
       <c r="E26" s="21">
-        <v>41405</v>
-      </c>
-      <c r="AM26"/>
+        <v>41400</v>
+      </c>
+      <c r="AM26" s="6"/>
       <c r="AN26"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="6"/>
-      <c r="AR26" s="6"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
     </row>
     <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="21">
+        <v>41400</v>
+      </c>
+      <c r="E27" s="21">
+        <v>41401</v>
+      </c>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+    </row>
+    <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="21">
+        <v>41402</v>
+      </c>
+      <c r="E28" s="21">
+        <v>41405</v>
+      </c>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+    </row>
+    <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D29" s="4">
         <v>41403</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <v>41405</v>
       </c>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-    </row>
-    <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
     </row>
     <row r="30" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1719,8 +1822,12 @@
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
     <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1728,9 +1835,44 @@
     <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1747,39 +1889,6 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,11 +387,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -402,11 +402,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,7 +697,7 @@
       <pane xSplit="10" ySplit="8" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21:E21"/>
+      <selection pane="bottomRight" activeCell="R20" activeCellId="1" sqref="AB20 R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,76 +793,76 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="R6" s="35" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="R6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="Y6" s="36" t="s">
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="Y6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AF6" s="35" t="s">
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AF6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AM6" s="35" t="s">
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AM6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="34">
@@ -966,16 +969,16 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
@@ -1514,7 +1517,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="24"/>
       <c r="AA20" s="24"/>
-      <c r="AB20" s="6"/>
+      <c r="AB20" s="42"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AF20" s="26"/>
@@ -1840,39 +1843,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
@@ -1889,6 +1859,39 @@
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AD7:AD8"/>
     <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/source/prodrive_gantt_chart.xlsx
+++ b/source/prodrive_gantt_chart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>WBS</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>alamid table name retriever</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,14 +405,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -402,19 +429,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,19 +727,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AS57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="10" ySplit="8" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI16" sqref="AI16"/>
+      <selection pane="bottomRight" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -800,270 +830,320 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="R6" s="36" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="R6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="Y6" s="37" t="s">
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="Y6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AF6" s="36" t="s">
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AF6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AM6" s="36" t="s">
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AM6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="C7" s="20"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK7" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K8" s="38">
         <v>41372</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L8" s="38">
         <v>41373</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M8" s="38">
         <v>41374</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N8" s="38">
         <v>41375</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O8" s="38">
         <v>41376</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P8" s="38">
         <v>41377</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q8" s="41">
         <v>41378</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R8" s="38">
         <v>41379</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S8" s="38">
         <v>41380</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T8" s="38">
         <v>41381</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U8" s="38">
         <v>41382</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V8" s="38">
         <v>41383</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W8" s="38">
         <v>41384</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X8" s="41">
         <v>41385</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y8" s="42">
         <v>41386</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z8" s="42">
         <v>41387</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA8" s="42">
         <v>41388</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB8" s="42">
         <v>41389</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC8" s="38">
         <v>41390</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AD8" s="45">
         <v>41391</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE8" s="41">
         <v>41392</v>
       </c>
-      <c r="AF7" s="35">
+      <c r="AF8" s="38">
         <v>41393</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG8" s="38">
         <v>41394</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH8" s="38">
         <v>41395</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI8" s="38">
         <v>41396</v>
       </c>
-      <c r="AJ7" s="35">
+      <c r="AJ8" s="38">
         <v>41397</v>
       </c>
-      <c r="AK7" s="35">
+      <c r="AK8" s="38">
         <v>41398</v>
       </c>
-      <c r="AL7" s="38">
+      <c r="AL8" s="41">
         <v>41399</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AM8" s="38">
         <v>41400</v>
       </c>
-      <c r="AN7" s="35">
+      <c r="AN8" s="38">
         <v>41401</v>
       </c>
-      <c r="AO7" s="35">
+      <c r="AO8" s="38">
         <v>41402</v>
       </c>
-      <c r="AP7" s="35">
+      <c r="AP8" s="38">
         <v>41403</v>
       </c>
-      <c r="AQ7" s="35">
+      <c r="AQ8" s="38">
         <v>41404</v>
       </c>
-      <c r="AR7" s="35">
+      <c r="AR8" s="38">
         <v>41405</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="5"/>
-    </row>
-    <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4">
-        <v>41372</v>
-      </c>
-      <c r="E9" s="4">
-        <v>41389</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="25"/>
-      <c r="AF9" s="26"/>
+    <row r="9" spans="1:45" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="5"/>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1096,13 +1176,13 @@
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
         <v>41372</v>
@@ -1132,10 +1212,10 @@
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1144,7 +1224,7 @@
         <v>41372</v>
       </c>
       <c r="E12" s="4">
-        <v>41398</v>
+        <v>41389</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1162,72 +1242,61 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="44"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AP12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="25"/>
+      <c r="AF12" s="26"/>
     </row>
     <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
+      <c r="A13" s="3">
+        <v>2.1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="25"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41372</v>
+      </c>
+      <c r="E13" s="4">
+        <v>41398</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="37"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AP13" s="26"/>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4">
-        <v>41382</v>
-      </c>
-      <c r="E14" s="4">
-        <v>41386</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1237,12 +1306,12 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="26"/>
       <c r="AD14" s="25"/>
@@ -1261,19 +1330,19 @@
     </row>
     <row r="15" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4">
-        <v>41389</v>
+        <v>41382</v>
       </c>
       <c r="E15" s="4">
-        <v>41390</v>
+        <v>41386</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -1284,14 +1353,14 @@
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="6"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="26"/>
       <c r="AD15" s="25"/>
       <c r="AF15" s="26"/>
       <c r="AG15" s="26"/>
@@ -1308,19 +1377,19 @@
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>41391</v>
+        <v>41389</v>
       </c>
       <c r="E16" s="4">
-        <v>41393</v>
+        <v>41390</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -1337,10 +1406,10 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="16"/>
-      <c r="AF16" s="6"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="25"/>
+      <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26"/>
@@ -1355,13 +1424,13 @@
     </row>
     <row r="17" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>41391</v>
@@ -1393,19 +1462,19 @@
       <c r="AI17" s="26"/>
       <c r="AJ17" s="26"/>
       <c r="AK17" s="26"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
     </row>
     <row r="18" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -1431,9 +1500,10 @@
       <c r="Y18" s="23"/>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="19"/>
+      <c r="AB18" s="24"/>
       <c r="AC18" s="26"/>
-      <c r="AF18" s="26"/>
+      <c r="AD18" s="16"/>
+      <c r="AF18" s="6"/>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
@@ -1448,10 +1518,10 @@
     </row>
     <row r="19" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1477,9 +1547,8 @@
       <c r="Y19" s="23"/>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="19"/>
+      <c r="AB19" s="36"/>
       <c r="AC19" s="26"/>
-      <c r="AD19" s="25"/>
       <c r="AF19" s="26"/>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
@@ -1495,19 +1564,19 @@
     </row>
     <row r="20" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4">
-        <v>41389</v>
+        <v>41391</v>
       </c>
       <c r="E20" s="4">
-        <v>41389</v>
+        <v>41393</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -1524,7 +1593,7 @@
       <c r="Y20" s="23"/>
       <c r="Z20" s="24"/>
       <c r="AA20" s="24"/>
-      <c r="AB20" s="43"/>
+      <c r="AB20" s="36"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="25"/>
       <c r="AF20" s="26"/>
@@ -1533,22 +1602,22 @@
       <c r="AI20" s="26"/>
       <c r="AJ20" s="26"/>
       <c r="AK20" s="26"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
     </row>
     <row r="21" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>41389</v>
@@ -1571,7 +1640,7 @@
       <c r="Y21" s="23"/>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="19"/>
+      <c r="AB21" s="36"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="25"/>
       <c r="AF21" s="26"/>
@@ -1587,154 +1656,178 @@
       <c r="AQ21" s="33"/>
       <c r="AR21" s="33"/>
     </row>
-    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41389</v>
+      </c>
+      <c r="E22" s="4">
+        <v>41389</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="25"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="33"/>
+    </row>
+    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="4">
         <v>41387</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>41387</v>
       </c>
-      <c r="Z22" s="13"/>
-    </row>
-    <row r="23" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="Z23" s="13"/>
+    </row>
+    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4">
-        <v>41393</v>
-      </c>
-      <c r="E23" s="4">
-        <v>41398</v>
-      </c>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-    </row>
-    <row r="24" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4">
-        <v>41387</v>
+        <v>41393</v>
       </c>
       <c r="E24" s="4">
-        <v>41391</v>
-      </c>
-      <c r="Z24" s="13"/>
-      <c r="AC24" s="17"/>
-    </row>
-    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41398</v>
+      </c>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+    </row>
+    <row r="25" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4">
-        <v>41388</v>
+        <v>41387</v>
       </c>
       <c r="E25" s="4">
         <v>41391</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="16"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
+      <c r="Z25" s="13"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="21">
-        <v>41400</v>
-      </c>
-      <c r="E26" s="21">
-        <v>41400</v>
-      </c>
-      <c r="AM26" s="6"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
+        <v>4.2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>41388</v>
+      </c>
+      <c r="E26" s="4">
+        <v>41391</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="16"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
     </row>
     <row r="27" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="21">
         <v>41400</v>
       </c>
       <c r="E27" s="21">
-        <v>41401</v>
+        <v>41400</v>
       </c>
       <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
+      <c r="AN27"/>
       <c r="AO27"/>
       <c r="AP27"/>
       <c r="AQ27"/>
@@ -1742,49 +1835,69 @@
     </row>
     <row r="28" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="21">
-        <v>41402</v>
+        <v>41400</v>
       </c>
       <c r="E28" s="21">
-        <v>41405</v>
-      </c>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
+        <v>41401</v>
+      </c>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
     </row>
     <row r="29" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="4">
-        <v>41403</v>
-      </c>
-      <c r="E29" s="4">
+        <v>7</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="21">
+        <v>41402</v>
+      </c>
+      <c r="E29" s="21">
         <v>41405</v>
       </c>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
       <c r="AR29" s="6"/>
     </row>
     <row r="30" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41403</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41405</v>
+      </c>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
     </row>
     <row r="31" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1837,7 +1950,9 @@
     <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1846,58 +1961,59 @@
     <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="49">
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="R6:W6"/>
     <mergeCell ref="Y6:AD6"/>
     <mergeCell ref="AF6:AK6"/>
     <mergeCell ref="AM6:AR6"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
